--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Client Error Messages" sheetId="1" r:id="rId1"/>
@@ -1900,6 +1900,1651 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="4" width="46.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,1651 +3569,6 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-    </row>
-    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D201"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
-    <col min="3" max="4" width="46.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="416">
   <si>
     <t>Error ID</t>
   </si>
@@ -1417,6 +1417,81 @@
         <scheme val="minor"/>
       </rPr>
       <t>{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the maximum length</t>
+    </r>
+  </si>
+  <si>
+    <t>Max length is not valid</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0} không thể vượt quá {1} ký tự.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the name of the element.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
     </r>
     <r>
       <rPr>
@@ -1951,13 +2026,19 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client Error Messages" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="462">
   <si>
     <t>Error ID</t>
   </si>
@@ -1503,6 +1503,323 @@
       </rPr>
       <t xml:space="preserve"> is the maximum length</t>
     </r>
+  </si>
+  <si>
+    <t>Field's length (min,max) is not valid</t>
+  </si>
+  <si>
+    <t>Field's length (max) is not valid</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hợp lệ không vượt quá </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ký tự."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the name of the element.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the minimum length</t>
+    </r>
+  </si>
+  <si>
+    <t>Filed's expression is invalid</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> không hợp lệ"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the name of the element.</t>
+    </r>
+  </si>
+  <si>
+    <t>Field's value's existed already.</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> này đã được sử dụng"</t>
+    </r>
+  </si>
+  <si>
+    <t>Field's value is not existed.</t>
+  </si>
+  <si>
+    <t>"{0} của bạn không đúng"</t>
+  </si>
+  <si>
+    <t>Re-type password is blank.</t>
+  </si>
+  <si>
+    <t>"Mật khẩu mới phải được nhập 2 lần để xác nhận mật khẩu".</t>
+  </si>
+  <si>
+    <t>Two field's values are duplicated.</t>
+  </si>
+  <si>
+    <t>"{0} phải khác {1}"</t>
+  </si>
+  <si>
+    <t>With
+{0} is the name of the first element
+{1} is the name of the second element</t>
+  </si>
+  <si>
+    <t>Two field's values are different.</t>
+  </si>
+  <si>
+    <t>"{0} không trùng khớp"</t>
+  </si>
+  <si>
+    <t>With
+{0} is the name of the element.</t>
+  </si>
+  <si>
+    <t>Drop down list required field is blank</t>
+  </si>
+  <si>
+    <t>"Xin hãy chọn {0}"</t>
+  </si>
+  <si>
+    <t>With
+{0} is the name of the required element.</t>
+  </si>
+  <si>
+    <t>Image filed's expression is invalid</t>
+  </si>
+  <si>
+    <t>"Tập tin hình ảnh không đúng định dạng"</t>
+  </si>
+  <si>
+    <t>Create hospital user's account</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tài khoản đăng ký thành công. Vui lòng kiểm tra email để kích hoạt tài khoản.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Register account successfully.</t>
+  </si>
+  <si>
+    <t>Update account information</t>
+  </si>
+  <si>
+    <t>"Mật khẩu thay đổi thành công"</t>
+  </si>
+  <si>
+    <t>Update password successfully</t>
+  </si>
+  <si>
+    <t>"Không thể kích hoạt. Vui lòng thử lại sau"</t>
+  </si>
+  <si>
+    <t>Cannot activate/deactivate account due to database connection</t>
+  </si>
+  <si>
+    <t>Add new doctor</t>
+  </si>
+  <si>
+    <t>"Bác sĩ mới được tạo thành công"</t>
+  </si>
+  <si>
+    <t>Insert doctor's information successfully.</t>
+  </si>
+  <si>
+    <t>Update doctor's basic information</t>
+  </si>
+  <si>
+    <t>"Cập nhật thông tin thành công"</t>
+  </si>
+  <si>
+    <t>Update doctor's basic information successfully.</t>
+  </si>
+  <si>
+    <t>Update doctor's work schedule</t>
+  </si>
+  <si>
+    <t>"Cập nhật lịch làm việc thành công"</t>
+  </si>
+  <si>
+    <t>Update doctor's work schedule successfully.</t>
+  </si>
+  <si>
+    <t>Search not found</t>
+  </si>
+  <si>
+    <t>"Tìm không thấy"</t>
+  </si>
+  <si>
+    <t>Confirm notification</t>
+  </si>
+  <si>
+    <t>"Tin nhắn xác nhận đã được gửi theo số điện thoại đăng kí. Vui lòng xác nhận cuộc hẹn qua tin nhắn"</t>
+  </si>
+  <si>
+    <t>confirm message when user make an appointment.</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +2046,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1764,7 +2081,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1975,7 +2292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2040,84 +2359,140 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>439</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3626,7 +4001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3663,69 +4040,115 @@
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>458</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -1512,51 +1512,6 @@
   </si>
   <si>
     <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hợp lệ không vượt quá </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ký tự."</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">With
 </t>
     </r>
@@ -1607,31 +1562,6 @@
   </si>
   <si>
     <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> không hợp lệ"</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">With
 </t>
     </r>
@@ -1660,47 +1590,13 @@
     <t>Field's value's existed already.</t>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> này đã được sử dụng"</t>
-    </r>
-  </si>
-  <si>
     <t>Field's value is not existed.</t>
   </si>
   <si>
-    <t>"{0} của bạn không đúng"</t>
-  </si>
-  <si>
     <t>Re-type password is blank.</t>
   </si>
   <si>
-    <t>"Mật khẩu mới phải được nhập 2 lần để xác nhận mật khẩu".</t>
-  </si>
-  <si>
     <t>Two field's values are duplicated.</t>
-  </si>
-  <si>
-    <t>"{0} phải khác {1}"</t>
   </si>
   <si>
     <t>With
@@ -1711,9 +1607,6 @@
     <t>Two field's values are different.</t>
   </si>
   <si>
-    <t>"{0} không trùng khớp"</t>
-  </si>
-  <si>
     <t>With
 {0} is the name of the element.</t>
   </si>
@@ -1721,9 +1614,6 @@
     <t>Drop down list required field is blank</t>
   </si>
   <si>
-    <t>"Xin hãy chọn {0}"</t>
-  </si>
-  <si>
     <t>With
 {0} is the name of the required element.</t>
   </si>
@@ -1731,9 +1621,6 @@
     <t>Image filed's expression is invalid</t>
   </si>
   <si>
-    <t>"Tập tin hình ảnh không đúng định dạng"</t>
-  </si>
-  <si>
     <t>Create hospital user's account</t>
   </si>
   <si>
@@ -1768,58 +1655,557 @@
     <t>Update account information</t>
   </si>
   <si>
-    <t>"Mật khẩu thay đổi thành công"</t>
-  </si>
-  <si>
     <t>Update password successfully</t>
   </si>
   <si>
-    <t>"Không thể kích hoạt. Vui lòng thử lại sau"</t>
-  </si>
-  <si>
     <t>Cannot activate/deactivate account due to database connection</t>
   </si>
   <si>
     <t>Add new doctor</t>
   </si>
   <si>
-    <t>"Bác sĩ mới được tạo thành công"</t>
-  </si>
-  <si>
     <t>Insert doctor's information successfully.</t>
   </si>
   <si>
     <t>Update doctor's basic information</t>
   </si>
   <si>
-    <t>"Cập nhật thông tin thành công"</t>
-  </si>
-  <si>
     <t>Update doctor's basic information successfully.</t>
   </si>
   <si>
     <t>Update doctor's work schedule</t>
   </si>
   <si>
-    <t>"Cập nhật lịch làm việc thành công"</t>
-  </si>
-  <si>
     <t>Update doctor's work schedule successfully.</t>
   </si>
   <si>
     <t>Search not found</t>
   </si>
   <si>
-    <t>"Tìm không thấy"</t>
-  </si>
-  <si>
     <t>Confirm notification</t>
   </si>
   <si>
-    <t>"Tin nhắn xác nhận đã được gửi theo số điện thoại đăng kí. Vui lòng xác nhận cuộc hẹn qua tin nhắn"</t>
-  </si>
-  <si>
     <t>confirm message when user make an appointment.</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mật khẩu mới phải được nhập 2 lần để xác nhận mật khẩu.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hợp lệ không vượt quá {1} ký tự.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không hợp lệ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phải khác</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0} không trùng khớp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xin hãy chọn {0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>này đã được sử dụng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>của bạn không đúng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cập nhật lịch làm việc thành công.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cập nhật thông tin thành công.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không có kết quả phù hợp.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bác sĩ mới được tạo thành công.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không thể kích hoạt. Vui lòng thử lại sau.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mật khẩu thay đổi thành công.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tin nhắn xác nhận đã được gửi theo số điện thoại đăng kí. Vui lòng xác nhận cuộc hẹn qua tin nhắn.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tập tin hình ảnh không đúng định dạng. (JPEG, JPG, PNG, BMP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2046,7 +2432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2081,7 +2467,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2292,9 +2678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2381,10 +2765,10 @@
         <v>417</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2392,13 +2776,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2406,13 +2790,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2420,13 +2804,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2434,10 +2818,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -2446,13 +2830,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2460,13 +2844,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2474,24 +2858,24 @@
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -4001,9 +4385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4045,13 +4427,13 @@
         <v>205</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4059,13 +4441,13 @@
         <v>206</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4076,10 +4458,10 @@
         <v>404</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4087,13 +4469,13 @@
         <v>208</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4101,13 +4483,13 @@
         <v>209</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4115,13 +4497,13 @@
         <v>210</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4129,10 +4511,10 @@
         <v>211</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -4141,13 +4523,13 @@
         <v>212</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>460</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Client Error Messages" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="458">
   <si>
     <t>Error ID</t>
   </si>
@@ -627,9 +627,6 @@
   </si>
   <si>
     <t>CEM199</t>
-  </si>
-  <si>
-    <t>CEM200</t>
   </si>
   <si>
     <t>SEM002</t>
@@ -1506,56 +1503,6 @@
   </si>
   <si>
     <t>Field's length (min,max) is not valid</t>
-  </si>
-  <si>
-    <t>Field's length (max) is not valid</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">With
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is the name of the element.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is the minimum length</t>
-    </r>
   </si>
   <si>
     <t>Filed's expression is invalid</t>
@@ -1700,51 +1647,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Mật khẩu mới phải được nhập 2 lần để xác nhận mật khẩu.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hợp lệ không vượt quá {1} ký tự.</t>
     </r>
     <r>
       <rPr>
@@ -2676,6 +2578,1699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="4" width="46.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2702,186 +4297,164 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>204</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>420</v>
-      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>461</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2889,7 +4462,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2897,7 +4470,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2905,7 +4478,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2913,7 +4486,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2921,7 +4494,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2929,7 +4502,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2937,7 +4510,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2945,7 +4518,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2953,7 +4526,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2961,7 +4534,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2969,7 +4542,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2977,7 +4550,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2985,7 +4558,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2993,7 +4566,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3001,7 +4574,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3009,7 +4582,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3017,7 +4590,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3025,7 +4598,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3033,7 +4606,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3041,7 +4614,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3049,7 +4622,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3057,7 +4630,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3065,7 +4638,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3073,7 +4646,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3081,7 +4654,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3089,7 +4662,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3097,7 +4670,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3105,7 +4678,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3113,7 +4686,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3121,7 +4694,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3129,7 +4702,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3137,7 +4710,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3145,7 +4718,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3153,7 +4726,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3161,7 +4734,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>251</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3169,7 +4742,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3177,7 +4750,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>55</v>
+        <v>253</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3185,7 +4758,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3193,7 +4766,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>255</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3201,7 +4774,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3209,7 +4782,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3217,7 +4790,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3225,7 +4798,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3233,7 +4806,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3241,7 +4814,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3249,7 +4822,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3257,7 +4830,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3265,7 +4838,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3273,7 +4846,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3281,7 +4854,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3289,7 +4862,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3297,7 +4870,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3305,7 +4878,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3313,7 +4886,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3321,7 +4894,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3329,7 +4902,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3337,7 +4910,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>75</v>
+        <v>273</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3345,7 +4918,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3353,7 +4926,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3361,7 +4934,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3369,7 +4942,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3377,7 +4950,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3385,7 +4958,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3393,7 +4966,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3401,7 +4974,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3409,7 +4982,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>282</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3417,7 +4990,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>283</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3425,7 +4998,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3433,7 +5006,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>285</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3441,7 +5014,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>286</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3449,7 +5022,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3457,7 +5030,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3465,7 +5038,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>289</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3473,7 +5046,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>290</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3481,7 +5054,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3489,7 +5062,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>292</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3497,7 +5070,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>293</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3505,7 +5078,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3513,7 +5086,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>295</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3521,7 +5094,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3529,7 +5102,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>297</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3537,7 +5110,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3545,7 +5118,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>299</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3553,7 +5126,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3561,7 +5134,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>301</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3569,7 +5142,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3577,7 +5150,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3585,7 +5158,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>304</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3593,7 +5166,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3601,7 +5174,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3609,7 +5182,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3617,7 +5190,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3625,7 +5198,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>309</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3633,7 +5206,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3641,7 +5214,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>311</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3649,7 +5222,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>312</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3657,7 +5230,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>313</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3665,7 +5238,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>314</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3673,7 +5246,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3681,7 +5254,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>316</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3689,7 +5262,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>317</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3697,7 +5270,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3705,7 +5278,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3713,7 +5286,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3721,7 +5294,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>321</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3729,7 +5302,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>124</v>
+        <v>322</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3737,7 +5310,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3745,7 +5318,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>324</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3753,7 +5326,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>325</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3761,7 +5334,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3769,7 +5342,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3777,7 +5350,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>328</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3785,7 +5358,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3793,7 +5366,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3801,7 +5374,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3809,7 +5382,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3817,7 +5390,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>333</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3825,7 +5398,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>334</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3833,7 +5406,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3841,7 +5414,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3849,7 +5422,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>337</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3857,7 +5430,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3865,7 +5438,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3873,7 +5446,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>340</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3881,7 +5454,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>341</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3889,7 +5462,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3897,7 +5470,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>343</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3905,7 +5478,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>344</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3913,7 +5486,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>345</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3921,7 +5494,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3929,7 +5502,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3937,7 +5510,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>348</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3945,7 +5518,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>349</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3953,7 +5526,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>152</v>
+        <v>350</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3961,7 +5534,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3969,7 +5542,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>154</v>
+        <v>352</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3977,7 +5550,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3985,7 +5558,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>354</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3993,7 +5566,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>157</v>
+        <v>355</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4001,7 +5574,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>158</v>
+        <v>356</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4009,7 +5582,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>159</v>
+        <v>357</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4017,7 +5590,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>160</v>
+        <v>358</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4025,7 +5598,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4033,7 +5606,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4041,7 +5614,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>163</v>
+        <v>361</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4049,7 +5622,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>164</v>
+        <v>362</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4057,7 +5630,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>165</v>
+        <v>363</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4065,7 +5638,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>166</v>
+        <v>364</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4073,7 +5646,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>167</v>
+        <v>365</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4081,7 +5654,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>168</v>
+        <v>366</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -4089,7 +5662,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>169</v>
+        <v>367</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -4097,7 +5670,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>170</v>
+        <v>368</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -4105,7 +5678,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>171</v>
+        <v>369</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -4113,7 +5686,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>172</v>
+        <v>370</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4121,7 +5694,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>173</v>
+        <v>371</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4129,7 +5702,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4137,7 +5710,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>175</v>
+        <v>373</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4145,7 +5718,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -4153,7 +5726,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>177</v>
+        <v>375</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -4161,7 +5734,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>178</v>
+        <v>376</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -4169,7 +5742,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>179</v>
+        <v>377</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -4177,7 +5750,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>180</v>
+        <v>378</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -4185,7 +5758,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>181</v>
+        <v>379</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -4193,7 +5766,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>182</v>
+        <v>380</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -4201,7 +5774,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>183</v>
+        <v>381</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -4209,7 +5782,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>184</v>
+        <v>382</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -4217,7 +5790,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>185</v>
+        <v>383</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -4225,7 +5798,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>186</v>
+        <v>384</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -4233,7 +5806,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>187</v>
+        <v>385</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -4241,7 +5814,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>188</v>
+        <v>386</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4249,7 +5822,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>189</v>
+        <v>387</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4257,7 +5830,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>190</v>
+        <v>388</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4265,7 +5838,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>191</v>
+        <v>389</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4273,7 +5846,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>192</v>
+        <v>390</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4281,7 +5854,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>193</v>
+        <v>391</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4289,7 +5862,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>194</v>
+        <v>392</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4297,7 +5870,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>195</v>
+        <v>393</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4305,7 +5878,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>196</v>
+        <v>394</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4313,7 +5886,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>197</v>
+        <v>395</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4321,7 +5894,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4329,7 +5902,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>199</v>
+        <v>397</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4337,7 +5910,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4345,7 +5918,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>201</v>
+        <v>399</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4353,7 +5926,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>202</v>
+        <v>400</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4361,7 +5934,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>203</v>
+        <v>401</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4369,1692 +5942,7 @@
     </row>
     <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D201"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
-    <col min="3" max="4" width="46.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-    </row>
-    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -1534,26 +1534,11 @@
     </r>
   </si>
   <si>
-    <t>Field's value's existed already.</t>
-  </si>
-  <si>
-    <t>Field's value is not existed.</t>
-  </si>
-  <si>
-    <t>Re-type password is blank.</t>
-  </si>
-  <si>
-    <t>Two field's values are duplicated.</t>
-  </si>
-  <si>
     <t>With
 {0} is the name of the first element
 {1} is the name of the second element</t>
   </si>
   <si>
-    <t>Two field's values are different.</t>
-  </si>
-  <si>
     <t>With
 {0} is the name of the element.</t>
   </si>
@@ -1831,6 +1816,206 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Cập nhật lịch làm việc thành công.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cập nhật thông tin thành công.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không có kết quả phù hợp.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bác sĩ mới được tạo thành công.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không thể kích hoạt. Vui lòng thử lại sau.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mật khẩu thay đổi thành công.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tin nhắn xác nhận đã được gửi theo số điện thoại đăng kí. Vui lòng xác nhận cuộc hẹn qua tin nhắn.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tập tin hình ảnh không đúng định dạng. (JPEG, JPG, PNG, BMP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{0}</t>
     </r>
     <r>
@@ -1851,7 +2036,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>này đã được sử dụng</t>
+      <t>này đã được sử dụng.</t>
     </r>
     <r>
       <rPr>
@@ -1865,6 +2050,21 @@
     </r>
   </si>
   <si>
+    <t>Field's value is already existed</t>
+  </si>
+  <si>
+    <t>Field's value is not existed</t>
+  </si>
+  <si>
+    <t>Re-type password is blank</t>
+  </si>
+  <si>
+    <t>Two field's values are duplicated</t>
+  </si>
+  <si>
+    <t>Two field's values are different</t>
+  </si>
+  <si>
     <r>
       <t>"</t>
     </r>
@@ -1896,207 +2096,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>của bạn không đúng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cập nhật lịch làm việc thành công.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cập nhật thông tin thành công.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Không có kết quả phù hợp.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bác sĩ mới được tạo thành công.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Không thể kích hoạt. Vui lòng thử lại sau.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mật khẩu thay đổi thành công.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tin nhắn xác nhận đã được gửi theo số điện thoại đăng kí. Vui lòng xác nhận cuộc hẹn qua tin nhắn.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tập tin hình ảnh không đúng định dạng. (JPEG, JPG, PNG, BMP)</t>
+      <t>không tồn tại.</t>
     </r>
     <r>
       <rPr>
@@ -2580,7 +2580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2667,7 +2669,7 @@
         <v>416</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>417</v>
@@ -2678,10 +2680,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>417</v>
@@ -2692,10 +2694,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>417</v>
@@ -2706,10 +2708,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -2718,13 +2720,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,13 +2734,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2746,13 +2748,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2760,10 +2762,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -4315,13 +4317,13 @@
         <v>204</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,13 +4331,13 @@
         <v>205</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4346,10 +4348,10 @@
         <v>403</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4357,13 +4359,13 @@
         <v>207</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4371,13 +4373,13 @@
         <v>208</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4385,13 +4387,13 @@
         <v>209</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4399,10 +4401,10 @@
         <v>210</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -4411,13 +4413,13 @@
         <v>211</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client Error Messages" sheetId="1" r:id="rId1"/>
@@ -2580,7 +2580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4275,7 +4275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="460">
   <si>
     <t>Error ID</t>
   </si>
@@ -2097,6 +2097,34 @@
         <scheme val="minor"/>
       </rPr>
       <t>không tồn tại.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Update hospital status failed</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đã có lỗi xảy ra trong quá trình thay đổi trạng thái của {0}.</t>
     </r>
     <r>
       <rPr>
@@ -4276,7 +4304,7 @@
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4424,12 +4452,16 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>459</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="462">
   <si>
     <t>Error ID</t>
   </si>
@@ -2136,6 +2136,34 @@
       </rPr>
       <t>"</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0} không được chứa khoảng trắng và ký tự đặc biệt.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Describe a field only allow alphabet and numeric characters</t>
   </si>
 </sst>
 </file>
@@ -2608,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,13 +2825,19 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -4304,7 +4338,7 @@
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Client Error Messages" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="506">
   <si>
     <t>Error ID</t>
   </si>
@@ -1617,9 +1617,6 @@
     <t>Confirm notification</t>
   </si>
   <si>
-    <t>confirm message when user make an appointment.</t>
-  </si>
-  <si>
     <r>
       <t>"</t>
     </r>
@@ -1766,7 +1763,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{0} không trùng khớp</t>
+      <t>Cập nhật lịch làm việc thành công.</t>
     </r>
     <r>
       <rPr>
@@ -1791,7 +1788,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Xin hãy chọn {0}</t>
+      <t>Cập nhật thông tin thành công.</t>
     </r>
     <r>
       <rPr>
@@ -1816,7 +1813,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Cập nhật lịch làm việc thành công.</t>
+      <t>Không có kết quả phù hợp.</t>
     </r>
     <r>
       <rPr>
@@ -1841,7 +1838,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Cập nhật thông tin thành công.</t>
+      <t>Bác sĩ mới được tạo thành công.</t>
     </r>
     <r>
       <rPr>
@@ -1866,7 +1863,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Không có kết quả phù hợp.</t>
+      <t>Không thể kích hoạt. Vui lòng thử lại sau.</t>
     </r>
     <r>
       <rPr>
@@ -1891,7 +1888,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bác sĩ mới được tạo thành công.</t>
+      <t>Mật khẩu thay đổi thành công.</t>
     </r>
     <r>
       <rPr>
@@ -1916,7 +1913,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Không thể kích hoạt. Vui lòng thử lại sau.</t>
+      <t>Tin nhắn xác nhận đã được gửi theo số điện thoại đăng kí. Vui lòng xác nhận cuộc hẹn qua tin nhắn.</t>
     </r>
     <r>
       <rPr>
@@ -1941,7 +1938,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Mật khẩu thay đổi thành công.</t>
+      <t>Tập tin hình ảnh không đúng định dạng. (JPEG, JPG, PNG, BMP)</t>
     </r>
     <r>
       <rPr>
@@ -1966,7 +1963,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Tin nhắn xác nhận đã được gửi theo số điện thoại đăng kí. Vui lòng xác nhận cuộc hẹn qua tin nhắn.</t>
+      <t>{0}</t>
     </r>
     <r>
       <rPr>
@@ -1976,12 +1973,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1991,7 +1983,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Tập tin hình ảnh không đúng định dạng. (JPEG, JPG, PNG, BMP)</t>
+      <t>này đã được sử dụng.</t>
     </r>
     <r>
       <rPr>
@@ -2005,6 +1997,21 @@
     </r>
   </si>
   <si>
+    <t>Field's value is already existed</t>
+  </si>
+  <si>
+    <t>Field's value is not existed</t>
+  </si>
+  <si>
+    <t>Re-type password is blank</t>
+  </si>
+  <si>
+    <t>Two field's values are duplicated</t>
+  </si>
+  <si>
+    <t>Two field's values are different</t>
+  </si>
+  <si>
     <r>
       <t>"</t>
     </r>
@@ -2036,7 +2043,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>này đã được sử dụng.</t>
+      <t>không tồn tại.</t>
     </r>
     <r>
       <rPr>
@@ -2050,19 +2057,7 @@
     </r>
   </si>
   <si>
-    <t>Field's value is already existed</t>
-  </si>
-  <si>
-    <t>Field's value is not existed</t>
-  </si>
-  <si>
-    <t>Re-type password is blank</t>
-  </si>
-  <si>
-    <t>Two field's values are duplicated</t>
-  </si>
-  <si>
-    <t>Two field's values are different</t>
+    <t>Update hospital status failed</t>
   </si>
   <si>
     <r>
@@ -2076,7 +2071,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{0}</t>
+      <t>Đã có lỗi xảy ra trong quá trình thay đổi trạng thái của {0}.</t>
     </r>
     <r>
       <rPr>
@@ -2086,7 +2081,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -2096,7 +2096,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>không tồn tại.</t>
+      <t>{0} không được chứa khoảng trắng và ký tự đặc biệt.</t>
     </r>
     <r>
       <rPr>
@@ -2110,7 +2110,10 @@
     </r>
   </si>
   <si>
-    <t>Update hospital status failed</t>
+    <t>Describe a field only allow alphabet and numeric characters</t>
+  </si>
+  <si>
+    <t>Invaid login authentication</t>
   </si>
   <si>
     <r>
@@ -2124,7 +2127,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Đã có lỗi xảy ra trong quá trình thay đổi trạng thái của {0}.</t>
+      <t>Sai thông tin đăng nhập</t>
     </r>
     <r>
       <rPr>
@@ -2138,6 +2141,15 @@
     </r>
   </si>
   <si>
+    <t>Confirm message when user make an appointment.</t>
+  </si>
+  <si>
+    <t>Invalid email or password using to log in the system</t>
+  </si>
+  <si>
+    <t>Required a specific location of the map</t>
+  </si>
+  <si>
     <r>
       <t>"</t>
     </r>
@@ -2149,7 +2161,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{0} không được chứa khoảng trắng và ký tự đặc biệt.</t>
+      <t>Xin hãy chọn địa điểm bệnh viện trên bản đồ.</t>
     </r>
     <r>
       <rPr>
@@ -2163,7 +2175,590 @@
     </r>
   </si>
   <si>
-    <t>Describe a field only allow alphabet and numeric characters</t>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0} không trùng khớp.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xin hãy chọn {0}.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Full address is not valid</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thiếu thông tin Địa chỉ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Full address is valid</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Địa chỉ phù hợp.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Address is duplicated with another hospital</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Địa chỉ trùng lắp với bệnh viện khác.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Address on map is located</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Địa điểm đã được xác định.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Person in charged is valid</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Người chịu trách nhiệm hợp lệ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Person in charged is in charged with another hospital</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Người dùng hiện đang chịu trách nhiệm một bệnh viện khác.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Person in charged is not exist in database</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Người dùng không tồn tại trong hệ thống.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking address information in database failed</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không kiểm tra được thông tin địa chỉ. Xin hãy thử lại sau.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Time value is not valid</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thời gian không phù hợp.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giá trị không được chứa khoảng trắng và ký tự đặc biệt.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Value does not allow white space and special character</t>
+  </si>
+  <si>
+    <t>Primary email is duplicated with secondary email</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email phụ không được trùng với Email chính.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Browser does not support identifying location</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trình duyệt không hỗ trợ xác định vị trí.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>System is processing information</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đang xử lý thông tin.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Location address is missing</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thiếu thông tin Tên đường.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>City address is missing</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thiếu thông tin Tỉnh / thành phố.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>District address is missing</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thiếu thông tin Quận / huyện.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thiếu thông tin Phường / xã.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Ward address is missing</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không xác định được vị trí, hãy thử lại với địa chỉ khác.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Cannot locate a specific address on map</t>
+  </si>
+  <si>
+    <t>Number of limit uploading picture is excceed</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không thể tải nhiều hơn {0} hình.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>With
+{0} is a specific number.</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2297,11 +2892,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2328,6 +2934,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2636,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,7 +3334,7 @@
         <v>416</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>417</v>
@@ -2736,10 +3345,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>417</v>
@@ -2750,10 +3359,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>417</v>
@@ -2764,10 +3373,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -2776,10 +3385,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>418</v>
@@ -2790,10 +3399,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>419</v>
@@ -2807,7 +3416,7 @@
         <v>420</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>421</v>
@@ -2821,7 +3430,7 @@
         <v>422</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -2830,10 +3439,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>419</v>
@@ -2843,161 +3452,243 @@
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>464</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>468</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>484</v>
+      </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>485</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>494</v>
+      </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>496</v>
+      </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>498</v>
+      </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>499</v>
+      </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>501</v>
+      </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
@@ -4337,8 +5028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4398,7 +5089,7 @@
         <v>426</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>427</v>
@@ -4412,7 +5103,7 @@
         <v>403</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>428</v>
@@ -4426,7 +5117,7 @@
         <v>429</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>430</v>
@@ -4440,7 +5131,7 @@
         <v>431</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>432</v>
@@ -4454,7 +5145,7 @@
         <v>433</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>434</v>
@@ -4468,7 +5159,7 @@
         <v>435</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -4480,10 +5171,10 @@
         <v>436</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4491,20 +5182,26 @@
         <v>212</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -3245,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client Error Messages" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="508">
   <si>
     <t>Error ID</t>
   </si>
@@ -2759,6 +2759,12 @@
   <si>
     <t>With
 {0} is a specific number.</t>
+  </si>
+  <si>
+    <t>"Tài khoản hiện đang tạm khóa, xin vui lòng liên hệ ban quản trị để mở khóa tài khoản."</t>
+  </si>
+  <si>
+    <t>Account is deactive</t>
   </si>
 </sst>
 </file>
@@ -3245,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5028,8 +5034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,12 +5209,16 @@
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>506</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Client Error Messages" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="511">
   <si>
     <t>Error ID</t>
   </si>
@@ -2761,10 +2761,41 @@
 {0} is a specific number.</t>
   </si>
   <si>
-    <t>"Tài khoản hiện đang tạm khóa, xin vui lòng liên hệ ban quản trị để mở khóa tài khoản."</t>
-  </si>
-  <si>
     <t>Account is deactive</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tài khoản hiện đang tạm khóa, xin vui lòng liên hệ ban quản trị để mở khóa tài khoản.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>"Xin hãy nhập tên bác sĩ hoặc chọn một chuyên khoa."</t>
+  </si>
+  <si>
+    <t>Doctor name or speciality drop down list is blank</t>
+  </si>
+  <si>
+    <t>Applied for tab Danh sách bác sỹ in page Hospital Detail</t>
   </si>
 </sst>
 </file>
@@ -2913,7 +2944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2943,6 +2974,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3251,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,13 +3730,19 @@
         <v>505</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
@@ -5034,8 +5074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5214,10 +5254,10 @@
         <v>214</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="D13" s="3"/>
     </row>

--- a/Design/Error Message.xlsx
+++ b/Design/Error Message.xlsx
@@ -1952,51 +1952,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>này đã được sử dụng.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
     <t>Field's value is already existed</t>
   </si>
   <si>
@@ -2796,6 +2751,51 @@
   </si>
   <si>
     <t>Applied for tab Danh sách bác sỹ in page Hospital Detail</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đã được sử dụng.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3285,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3385,10 +3385,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>417</v>
@@ -3399,10 +3399,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>417</v>
@@ -3413,7 +3413,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>437</v>
@@ -3425,7 +3425,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>439</v>
@@ -3439,10 +3439,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>419</v>
@@ -3456,7 +3456,7 @@
         <v>420</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>421</v>
@@ -3479,10 +3479,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>419</v>
@@ -3493,10 +3493,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -3505,10 +3505,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -3517,10 +3517,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -3529,10 +3529,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -3541,10 +3541,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -3553,10 +3553,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -3565,10 +3565,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -3577,10 +3577,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -3589,10 +3589,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="D23" s="3"/>
     </row>
@@ -3601,10 +3601,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -3613,10 +3613,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -3625,10 +3625,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -3637,10 +3637,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -3649,10 +3649,10 @@
         <v>31</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -3661,10 +3661,10 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="D29" s="3"/>
     </row>
@@ -3673,10 +3673,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -3685,10 +3685,10 @@
         <v>34</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="D31" s="3"/>
     </row>
@@ -3697,10 +3697,10 @@
         <v>35</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D32" s="3"/>
     </row>
@@ -3709,10 +3709,10 @@
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -3721,13 +3721,13 @@
         <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3735,13 +3735,13 @@
         <v>38</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5220,7 +5220,7 @@
         <v>446</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5228,10 +5228,10 @@
         <v>212</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -5240,13 +5240,13 @@
         <v>213</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>460</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5254,10 +5254,10 @@
         <v>214</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="D13" s="3"/>
     </row>
